--- a/natmiOut/OldD2/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H2">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I2">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J2">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.375860598353964</v>
+        <v>0.388946</v>
       </c>
       <c r="N2">
-        <v>0.375860598353964</v>
+        <v>0.777892</v>
       </c>
       <c r="O2">
-        <v>0.03879410748625375</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P2">
-        <v>0.03879410748625375</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q2">
-        <v>0.771602288978309</v>
+        <v>0.814963804571</v>
       </c>
       <c r="R2">
-        <v>0.771602288978309</v>
+        <v>3.259855218284</v>
       </c>
       <c r="S2">
-        <v>0.01146319301998645</v>
+        <v>0.01079347857960757</v>
       </c>
       <c r="T2">
-        <v>0.01146319301998645</v>
+        <v>0.009340809075698295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H3">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I3">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J3">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.197488887058519</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N3">
-        <v>0.197488887058519</v>
+        <v>0.714673</v>
       </c>
       <c r="O3">
-        <v>0.02038363463858944</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P3">
-        <v>0.02038363463858944</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q3">
-        <v>0.4054239203829142</v>
+        <v>0.4991546616618334</v>
       </c>
       <c r="R3">
-        <v>0.4054239203829142</v>
+        <v>2.994927969971</v>
       </c>
       <c r="S3">
-        <v>0.006023119320217069</v>
+        <v>0.00661086433328695</v>
       </c>
       <c r="T3">
-        <v>0.006023119320217069</v>
+        <v>0.008581684918416089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H4">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I4">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J4">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8843721734169659</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N4">
-        <v>0.8843721734169659</v>
+        <v>3.133244</v>
       </c>
       <c r="O4">
-        <v>0.09127966406598413</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P4">
-        <v>0.09127966406598413</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q4">
-        <v>1.815523085701638</v>
+        <v>2.188376150664667</v>
       </c>
       <c r="R4">
-        <v>1.815523085701638</v>
+        <v>13.130256903988</v>
       </c>
       <c r="S4">
-        <v>0.02697204487456405</v>
+        <v>0.02898311676401003</v>
       </c>
       <c r="T4">
-        <v>0.02697204487456405</v>
+        <v>0.03762351842103689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H5">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I5">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J5">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.24237150804453</v>
+        <v>0.373449</v>
       </c>
       <c r="N5">
-        <v>0.24237150804453</v>
+        <v>1.120347</v>
       </c>
       <c r="O5">
-        <v>0.02501615326496686</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P5">
-        <v>0.02501615326496686</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q5">
-        <v>0.4975632221341927</v>
+        <v>0.7824927312615</v>
       </c>
       <c r="R5">
-        <v>0.4975632221341927</v>
+        <v>4.694956387569</v>
       </c>
       <c r="S5">
-        <v>0.007391972958663666</v>
+        <v>0.01036342778194368</v>
       </c>
       <c r="T5">
-        <v>0.007391972958663666</v>
+        <v>0.01345295674146457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H6">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I6">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J6">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.98850705384629</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N6">
-        <v>7.98850705384629</v>
+        <v>1.335781</v>
       </c>
       <c r="O6">
-        <v>0.8245264405442058</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P6">
-        <v>0.8245264405442058</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q6">
-        <v>16.39956503890389</v>
+        <v>0.9329599874478335</v>
       </c>
       <c r="R6">
-        <v>16.39956503890389</v>
+        <v>5.597759924687001</v>
       </c>
       <c r="S6">
-        <v>0.2436376643383204</v>
+        <v>0.01235623420778786</v>
       </c>
       <c r="T6">
-        <v>0.2436376643383204</v>
+        <v>0.01603985551714807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5457031386569829</v>
+        <v>2.0953135</v>
       </c>
       <c r="H7">
-        <v>0.5457031386569829</v>
+        <v>4.190627</v>
       </c>
       <c r="I7">
-        <v>0.07854699696867815</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J7">
-        <v>0.07854699696867815</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.375860598353964</v>
+        <v>7.997239</v>
       </c>
       <c r="N7">
-        <v>0.375860598353964</v>
+        <v>15.994478</v>
       </c>
       <c r="O7">
-        <v>0.03879410748625375</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P7">
-        <v>0.03879410748625375</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q7">
-        <v>0.2051083082192498</v>
+        <v>16.7567228394265</v>
       </c>
       <c r="R7">
-        <v>0.2051083082192498</v>
+        <v>67.02689135770599</v>
       </c>
       <c r="S7">
-        <v>0.003047160643125348</v>
+        <v>0.2219280513040428</v>
       </c>
       <c r="T7">
-        <v>0.003047160643125348</v>
+        <v>0.1920592643496227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H8">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I8">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J8">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197488887058519</v>
+        <v>0.388946</v>
       </c>
       <c r="N8">
-        <v>0.197488887058519</v>
+        <v>0.777892</v>
       </c>
       <c r="O8">
-        <v>0.02038363463858944</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P8">
-        <v>0.02038363463858944</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q8">
-        <v>0.1077703055177082</v>
+        <v>0.02010487803733333</v>
       </c>
       <c r="R8">
-        <v>0.1077703055177082</v>
+        <v>0.120629268224</v>
       </c>
       <c r="S8">
-        <v>0.001601073288167928</v>
+        <v>0.0002662714211655208</v>
       </c>
       <c r="T8">
-        <v>0.001601073288167928</v>
+        <v>0.0003456518427878897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -971,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H9">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I9">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J9">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8843721734169659</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N9">
-        <v>0.8843721734169659</v>
+        <v>0.714673</v>
       </c>
       <c r="O9">
-        <v>0.09127966406598413</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P9">
-        <v>0.09127966406598413</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q9">
-        <v>0.4826046707745359</v>
+        <v>0.01231397460622222</v>
       </c>
       <c r="R9">
-        <v>0.4826046707745359</v>
+        <v>0.110825771456</v>
       </c>
       <c r="S9">
-        <v>0.007169743496692815</v>
+        <v>0.000163087759722109</v>
       </c>
       <c r="T9">
-        <v>0.007169743496692815</v>
+        <v>0.0003175608432028476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H10">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I10">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J10">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.24237150804453</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N10">
-        <v>0.24237150804453</v>
+        <v>3.133244</v>
       </c>
       <c r="O10">
-        <v>0.02501615326496686</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P10">
-        <v>0.02501615326496686</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q10">
-        <v>0.1322628926609262</v>
+        <v>0.05398649039644444</v>
       </c>
       <c r="R10">
-        <v>0.1322628926609262</v>
+        <v>0.4858784135679999</v>
       </c>
       <c r="S10">
-        <v>0.00196494371467134</v>
+        <v>0.0007150035675375168</v>
       </c>
       <c r="T10">
-        <v>0.00196494371467134</v>
+        <v>0.001392238977266894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H11">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I11">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J11">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>7.98850705384629</v>
+        <v>0.373449</v>
       </c>
       <c r="N11">
-        <v>7.98850705384629</v>
+        <v>1.120347</v>
       </c>
       <c r="O11">
-        <v>0.8245264405442058</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P11">
-        <v>0.8245264405442058</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q11">
-        <v>4.359353372467369</v>
+        <v>0.019303827776</v>
       </c>
       <c r="R11">
-        <v>4.359353372467369</v>
+        <v>0.173734449984</v>
       </c>
       <c r="S11">
-        <v>0.06476407582602071</v>
+        <v>0.000255662215224845</v>
       </c>
       <c r="T11">
-        <v>0.06476407582602071</v>
+        <v>0.0004978197553283539</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>4.34887497958438</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H12">
-        <v>4.34887497958438</v>
+        <v>0.155072</v>
       </c>
       <c r="I12">
-        <v>0.6259650085195703</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J12">
-        <v>0.6259650085195703</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.375860598353964</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N12">
-        <v>0.375860598353964</v>
+        <v>1.335781</v>
       </c>
       <c r="O12">
-        <v>0.03879410748625375</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P12">
-        <v>0.03879410748625375</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q12">
-        <v>1.634570751993168</v>
+        <v>0.02301580347022222</v>
       </c>
       <c r="R12">
-        <v>1.634570751993168</v>
+        <v>0.207142231232</v>
       </c>
       <c r="S12">
-        <v>0.02428375382314196</v>
+        <v>0.000304824067467721</v>
       </c>
       <c r="T12">
-        <v>0.02428375382314196</v>
+        <v>0.0005935466159968867</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>4.34887497958438</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H13">
-        <v>4.34887497958438</v>
+        <v>0.155072</v>
       </c>
       <c r="I13">
-        <v>0.6259650085195703</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J13">
-        <v>0.6259650085195703</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.197488887058519</v>
+        <v>7.997239</v>
       </c>
       <c r="N13">
-        <v>0.197488887058519</v>
+        <v>15.994478</v>
       </c>
       <c r="O13">
-        <v>0.02038363463858944</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P13">
-        <v>0.02038363463858944</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q13">
-        <v>0.8588544796747588</v>
+        <v>0.4133826154026666</v>
       </c>
       <c r="R13">
-        <v>0.8588544796747588</v>
+        <v>2.480295692416</v>
       </c>
       <c r="S13">
-        <v>0.01275944203020445</v>
+        <v>0.005474889043544163</v>
       </c>
       <c r="T13">
-        <v>0.01275944203020445</v>
+        <v>0.00710705444345791</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.34887497958438</v>
+        <v>0.6725316666666666</v>
       </c>
       <c r="H14">
-        <v>4.34887497958438</v>
+        <v>2.017595</v>
       </c>
       <c r="I14">
-        <v>0.6259650085195703</v>
+        <v>0.09341340564864985</v>
       </c>
       <c r="J14">
-        <v>0.6259650085195703</v>
+        <v>0.1334100407703047</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8843721734169659</v>
+        <v>0.388946</v>
       </c>
       <c r="N14">
-        <v>0.8843721734169659</v>
+        <v>0.777892</v>
       </c>
       <c r="O14">
-        <v>0.09127966406598413</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P14">
-        <v>0.09127966406598413</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q14">
-        <v>3.846024017613701</v>
+        <v>0.2615785016233333</v>
       </c>
       <c r="R14">
-        <v>3.846024017613701</v>
+        <v>1.56947100974</v>
       </c>
       <c r="S14">
-        <v>0.05713787569472727</v>
+        <v>0.003464377115059127</v>
       </c>
       <c r="T14">
-        <v>0.05713787569472727</v>
+        <v>0.004497171828245153</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.34887497958438</v>
+        <v>0.6725316666666666</v>
       </c>
       <c r="H15">
-        <v>4.34887497958438</v>
+        <v>2.017595</v>
       </c>
       <c r="I15">
-        <v>0.6259650085195703</v>
+        <v>0.09341340564864985</v>
       </c>
       <c r="J15">
-        <v>0.6259650085195703</v>
+        <v>0.1334100407703047</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.24237150804453</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N15">
-        <v>0.24237150804453</v>
+        <v>0.714673</v>
       </c>
       <c r="O15">
-        <v>0.02501615326496686</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P15">
-        <v>0.02501615326496686</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q15">
-        <v>1.054043387098991</v>
+        <v>0.1602134079372222</v>
       </c>
       <c r="R15">
-        <v>1.054043387098991</v>
+        <v>1.441920671435</v>
       </c>
       <c r="S15">
-        <v>0.01565923659163185</v>
+        <v>0.002121885631039315</v>
       </c>
       <c r="T15">
-        <v>0.01565923659163185</v>
+        <v>0.004131688308926494</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,619 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6725316666666666</v>
+      </c>
+      <c r="H16">
+        <v>2.017595</v>
+      </c>
+      <c r="I16">
+        <v>0.09341340564864985</v>
+      </c>
+      <c r="J16">
+        <v>0.1334100407703047</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.044414666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.133244</v>
+      </c>
+      <c r="O16">
+        <v>0.09958630246705613</v>
+      </c>
+      <c r="P16">
+        <v>0.1357768960213274</v>
+      </c>
+      <c r="Q16">
+        <v>0.7024019364644445</v>
+      </c>
+      <c r="R16">
+        <v>6.32161742818</v>
+      </c>
+      <c r="S16">
+        <v>0.009302695669404254</v>
+      </c>
+      <c r="T16">
+        <v>0.01811400123387072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6725316666666666</v>
+      </c>
+      <c r="H17">
+        <v>2.017595</v>
+      </c>
+      <c r="I17">
+        <v>0.09341340564864985</v>
+      </c>
+      <c r="J17">
+        <v>0.1334100407703047</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.373449</v>
+      </c>
+      <c r="N17">
+        <v>1.120347</v>
+      </c>
+      <c r="O17">
+        <v>0.03560884987254709</v>
+      </c>
+      <c r="P17">
+        <v>0.04854943889681305</v>
+      </c>
+      <c r="Q17">
+        <v>0.251156278385</v>
+      </c>
+      <c r="R17">
+        <v>2.260406505465</v>
+      </c>
+      <c r="S17">
+        <v>0.003326343937826114</v>
+      </c>
+      <c r="T17">
+        <v>0.006476982622599247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6725316666666666</v>
+      </c>
+      <c r="H18">
+        <v>2.017595</v>
+      </c>
+      <c r="I18">
+        <v>0.09341340564864985</v>
+      </c>
+      <c r="J18">
+        <v>0.1334100407703047</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.4452603333333334</v>
+      </c>
+      <c r="N18">
+        <v>1.335781</v>
+      </c>
+      <c r="O18">
+        <v>0.04245615429112661</v>
+      </c>
+      <c r="P18">
+        <v>0.05788511777067627</v>
+      </c>
+      <c r="Q18">
+        <v>0.2994516740772222</v>
+      </c>
+      <c r="R18">
+        <v>2.695065066695</v>
+      </c>
+      <c r="S18">
+        <v>0.003965973963078676</v>
+      </c>
+      <c r="T18">
+        <v>0.007722455921779811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6725316666666666</v>
+      </c>
+      <c r="H19">
+        <v>2.017595</v>
+      </c>
+      <c r="I19">
+        <v>0.09341340564864985</v>
+      </c>
+      <c r="J19">
+        <v>0.1334100407703047</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.997239</v>
+      </c>
+      <c r="N19">
+        <v>15.994478</v>
+      </c>
+      <c r="O19">
+        <v>0.7625471830045831</v>
+      </c>
+      <c r="P19">
+        <v>0.6931093066232342</v>
+      </c>
+      <c r="Q19">
+        <v>5.378396473401666</v>
+      </c>
+      <c r="R19">
+        <v>32.27037884041</v>
+      </c>
+      <c r="S19">
+        <v>0.07123212933224235</v>
+      </c>
+      <c r="T19">
+        <v>0.09246774085488331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.379984</v>
+      </c>
+      <c r="H20">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J20">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.388946</v>
+      </c>
+      <c r="N20">
+        <v>0.777892</v>
+      </c>
+      <c r="O20">
+        <v>0.03708650906155245</v>
+      </c>
+      <c r="P20">
+        <v>0.03370939550185763</v>
+      </c>
+      <c r="Q20">
+        <v>1.703577256864</v>
+      </c>
+      <c r="R20">
+        <v>6.814309027456001</v>
+      </c>
+      <c r="S20">
+        <v>0.02256238194572023</v>
+      </c>
+      <c r="T20">
+        <v>0.0195257627551263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.379984</v>
+      </c>
+      <c r="H21">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J21">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2382243333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.714673</v>
+      </c>
+      <c r="O21">
+        <v>0.02271500130313452</v>
+      </c>
+      <c r="P21">
+        <v>0.03096984518609152</v>
+      </c>
+      <c r="Q21">
+        <v>1.043418768410667</v>
+      </c>
+      <c r="R21">
+        <v>6.260512610464001</v>
+      </c>
+      <c r="S21">
+        <v>0.01381916357908614</v>
+      </c>
+      <c r="T21">
+        <v>0.01793891111554608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.379984</v>
+      </c>
+      <c r="H22">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J22">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.044414666666667</v>
+      </c>
+      <c r="N22">
+        <v>3.133244</v>
+      </c>
+      <c r="O22">
+        <v>0.09958630246705613</v>
+      </c>
+      <c r="P22">
+        <v>0.1357768960213274</v>
+      </c>
+      <c r="Q22">
+        <v>4.574519529365334</v>
+      </c>
+      <c r="R22">
+        <v>27.447117176192</v>
+      </c>
+      <c r="S22">
+        <v>0.06058548646610434</v>
+      </c>
+      <c r="T22">
+        <v>0.07864713738915292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.379984</v>
+      </c>
+      <c r="H23">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J23">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.373449</v>
+      </c>
+      <c r="N23">
+        <v>1.120347</v>
+      </c>
+      <c r="O23">
+        <v>0.03560884987254709</v>
+      </c>
+      <c r="P23">
+        <v>0.04854943889681305</v>
+      </c>
+      <c r="Q23">
+        <v>1.635700644816</v>
+      </c>
+      <c r="R23">
+        <v>9.814203868896001</v>
+      </c>
+      <c r="S23">
+        <v>0.02166341593755245</v>
+      </c>
+      <c r="T23">
+        <v>0.02812167977742088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.34887497958438</v>
-      </c>
-      <c r="H16">
-        <v>4.34887497958438</v>
-      </c>
-      <c r="I16">
-        <v>0.6259650085195703</v>
-      </c>
-      <c r="J16">
-        <v>0.6259650085195703</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.98850705384629</v>
-      </c>
-      <c r="N16">
-        <v>7.98850705384629</v>
-      </c>
-      <c r="O16">
-        <v>0.8245264405442058</v>
-      </c>
-      <c r="P16">
-        <v>0.8245264405442058</v>
-      </c>
-      <c r="Q16">
-        <v>34.74101845070546</v>
-      </c>
-      <c r="R16">
-        <v>34.74101845070546</v>
-      </c>
-      <c r="S16">
-        <v>0.5161247003798647</v>
-      </c>
-      <c r="T16">
-        <v>0.5161247003798647</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.379984</v>
+      </c>
+      <c r="H24">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J24">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.4452603333333334</v>
+      </c>
+      <c r="N24">
+        <v>1.335781</v>
+      </c>
+      <c r="O24">
+        <v>0.04245615429112661</v>
+      </c>
+      <c r="P24">
+        <v>0.05788511777067627</v>
+      </c>
+      <c r="Q24">
+        <v>1.950233135834667</v>
+      </c>
+      <c r="R24">
+        <v>11.701398815008</v>
+      </c>
+      <c r="S24">
+        <v>0.02582912205279235</v>
+      </c>
+      <c r="T24">
+        <v>0.0335292597157515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.379984</v>
+      </c>
+      <c r="H25">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J25">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.997239</v>
+      </c>
+      <c r="N25">
+        <v>15.994478</v>
+      </c>
+      <c r="O25">
+        <v>0.7625471830045831</v>
+      </c>
+      <c r="P25">
+        <v>0.6931093066232342</v>
+      </c>
+      <c r="Q25">
+        <v>35.027778864176</v>
+      </c>
+      <c r="R25">
+        <v>140.111115456704</v>
+      </c>
+      <c r="S25">
+        <v>0.4639121133247538</v>
+      </c>
+      <c r="T25">
+        <v>0.4014752469752703</v>
       </c>
     </row>
   </sheetData>
